--- a/tests/data/sample_const_t_p_abs_v1.xlsx
+++ b/tests/data/sample_const_t_p_abs_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/msi/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F6F3F0-B494-8C40-A082-6229BDEEEF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F3585D-CF77-CD4D-99DE-7C035656CB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45420" yWindow="2360" windowWidth="28400" windowHeight="17900" activeTab="1" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
+    <workbookView xWindow="3720" yWindow="2540" windowWidth="20480" windowHeight="13680" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>parameter</t>
   </si>
@@ -188,6 +188,36 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>active_spc</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>plot_format</t>
+  </si>
+  <si>
+    <t>plot_points</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -574,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E566FD-7BF3-F74E-98A5-DE111CAFB7E0}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,10 +789,10 @@
         <v>43</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -770,144 +800,256 @@
       <c r="G11" s="8"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2000</v>
+        <v>7</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
+      <c r="A15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="8"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="9">
+        <v>100</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+    <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -918,11 +1060,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFA5EEB-3993-0F42-AC73-AA3A7F46C27C}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
